--- a/DATA_goal/Junction_Flooding_393.xlsx
+++ b/DATA_goal/Junction_Flooding_393.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -453,7 +453,7 @@
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
@@ -464,7 +464,7 @@
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -967,103 +967,103 @@
         <v>44781.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.12</v>
+        <v>21.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.35</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>94.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.67</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_393.xlsx
+++ b/DATA_goal/Junction_Flooding_393.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.79861111111</v>
+        <v>45074.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.80555555555</v>
+        <v>45074.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>22.851</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>17.001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.853</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>50.152</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>40.426</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>17.384</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>65.703</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>27.839</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>12.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>17.767</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>20.067</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>21.483</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>25.412</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>15.504</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.867</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.962</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>267.363</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>50.403</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>33.573</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>17.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.318</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>33.886</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>13.143</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>15.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>21.246</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>59.993</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.8125</v>
+        <v>45074.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>22.421</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>16.745</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.453</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>49.122</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>39.924</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>17.223</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>69.297</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>27.267</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>12.297</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>17.662</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>19.681</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>20.999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>25.005</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>15.032</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.631</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.865</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>261.653</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>49.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>33.095</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>17.444</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>12.809</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>15.017</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>20.769</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>63.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>9.116</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.81944444445</v>
+        <v>45074.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.79</v>
+        <v>14.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.96</v>
+        <v>10.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.19</v>
+        <v>31.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.94</v>
+        <v>25.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.99</v>
+        <v>10.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.81</v>
+        <v>46.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.6</v>
+        <v>17.38</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>3.79</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="O5" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>164.36</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>10.41</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>94.53</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>5.78</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>11.91</v>
+        <v>21.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.79</v>
+        <v>11.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.67</v>
+        <v>22.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.27</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.03</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.81</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.5</v>
+        <v>13.26</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>2.49</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.48</v>
+        <v>42.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.76</v>
+        <v>5.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.25</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_393.xlsx
+++ b/DATA_goal/Junction_Flooding_393.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45074.50694444445</v>
+        <v>44781.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.821999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.243</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.794</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.605</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.205</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.893</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.279</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.957</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.563</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.697</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.759</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.683999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.881</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.143</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.409000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.779</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.556</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.319</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.594</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.192</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.907</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.798</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.548</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.824</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.505</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.107</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.566000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.095</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.882</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.332</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45074.51388888889</v>
+        <v>44781.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.851</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.001</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.853</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.152</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.426</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.384</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.703</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.839</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.47</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.767</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.067</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.483</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.046</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.412</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.504</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.962</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.363</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.403</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.657</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.573</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.79</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.318</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.886</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.713</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.143</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.358</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.246</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.973</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.993</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45074.52083333334</v>
+        <v>44781.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.421</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.745</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.453</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.122</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.924</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.223</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.297</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.267</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.297</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.662</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.681</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.999</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.67</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.005</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.032</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.631</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.865</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>261.653</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.44</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.31</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.095</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.444</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.293</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.407</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.809</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.017</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.769</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>63.16</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.116</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45074.52777777778</v>
+        <v>44781.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.28</v>
+        <v>11.789</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>4.956</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>13.942</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>17.815</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>10.603</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.787</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.896</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.202</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.342</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.017</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>94.526</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>16.802</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.775</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>11.913</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>7.786</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>12.668</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>5.266</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.805</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.496</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>14.482</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.761</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.82637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>10.66</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>31.36</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>164.36</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>31.62</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>42.47</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+      <c r="G6" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_393.xlsx
+++ b/DATA_goal/Junction_Flooding_393.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.79861111111</v>
+        <v>45074.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.80555555555</v>
+        <v>45074.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>22.851</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>17.001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.853</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>50.152</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>40.426</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>17.384</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>65.703</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>27.839</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>12.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>17.767</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>20.067</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>21.483</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>25.412</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>15.504</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.867</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.962</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>267.363</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>50.403</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>33.573</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>17.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.318</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>33.886</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>13.143</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>15.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>21.246</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>59.993</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.8125</v>
+        <v>45074.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>22.421</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>16.745</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.453</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>49.122</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>39.924</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>17.223</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>69.297</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>27.267</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>12.297</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>17.662</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>19.681</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>20.999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>25.005</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>15.032</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.631</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.865</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>261.653</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>49.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>33.095</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>17.444</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>12.809</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>15.017</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>20.769</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>63.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>9.116</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.81944444445</v>
+        <v>45074.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.789</v>
+        <v>14.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.956</v>
+        <v>10.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>2.105</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.19</v>
+        <v>31.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.942</v>
+        <v>25.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.989</v>
+        <v>10.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.815</v>
+        <v>46.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.603</v>
+        <v>17.38</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.787</v>
+        <v>7.89</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.896</v>
+        <v>11.18</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>164.36</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>10.41</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.202</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.342</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>5.017</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>94.526</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>16.802</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>5.775</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>11.913</v>
+        <v>21.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.786</v>
+        <v>11.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.859</v>
+        <v>1.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.668</v>
+        <v>22.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.266</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.034</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.805</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.496</v>
+        <v>13.26</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>2.493</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.482</v>
+        <v>42.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.761</v>
+        <v>5.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.842</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.25</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>
